--- a/app/data/B19055Social Security incoem in the past 12 mnts for household.xlsx
+++ b/app/data/B19055Social Security incoem in the past 12 mnts for household.xlsx
@@ -3,22 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{8DD05654-A4D7-479D-B104-69E8319902A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24F511C-69AD-4AA1-8CC9-E453A840A02A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{8DD05654-A4D7-479D-B104-69E8319902A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F142890-E306-4376-8682-19C0305D59AB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$A:$A,Data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="780">
   <si>
     <t>Label</t>
   </si>
@@ -2346,6 +2360,18 @@
   </si>
   <si>
     <t>Spokane Metro</t>
+  </si>
+  <si>
+    <t>Standardized_Total</t>
+  </si>
+  <si>
+    <t>Standardized_With_Social_Security_income</t>
+  </si>
+  <si>
+    <t>Standardized_No_Social_Security_income</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2425,6 +2451,15 @@
       <alignment wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2768,11 +2803,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3642,7 +3677,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
@@ -3662,7 +3697,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3682,7 +3717,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -3702,7 +3737,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3722,7 +3757,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -3742,7 +3777,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3762,7 +3797,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -3782,7 +3817,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>5</v>
       </c>
@@ -3802,7 +3837,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>1</v>
       </c>
@@ -3822,7 +3857,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -10162,7 +10197,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>1</v>
       </c>
@@ -10182,7 +10217,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>5</v>
       </c>
@@ -10202,7 +10237,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>1</v>
       </c>
@@ -10222,7 +10257,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>5</v>
       </c>
@@ -10322,7 +10357,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>1</v>
       </c>
@@ -10342,7 +10377,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>5</v>
       </c>
@@ -10482,7 +10517,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>1</v>
       </c>
@@ -10502,7 +10537,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>5</v>
       </c>
@@ -10576,4 +10611,6703 @@
     <evenFooter>&amp;L&amp;Bdata.census.gov&amp;B | Measuring America's People, Places, and Economy &amp;R&amp;P</evenFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABC3470-E1D8-401E-B6E2-41211E9DE5E9}">
+  <dimension ref="A1:J196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1099</v>
+      </c>
+      <c r="C2" s="5">
+        <v>511</v>
+      </c>
+      <c r="D2" s="5">
+        <v>588</v>
+      </c>
+      <c r="E2">
+        <v>9501</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G2">
+        <f>STANDARDIZE(B2,AVERAGE($B$2:$B$184),_xlfn.STDEV.S($B$2:$B$184))</f>
+        <v>-0.68252203490223462</v>
+      </c>
+      <c r="H2">
+        <f>STANDARDIZE(C2,AVERAGE($C$2:$C$184),_xlfn.STDEV.S($C$2:$C$184))</f>
+        <v>6.1438335903740244E-3</v>
+      </c>
+      <c r="I2">
+        <f>STANDARDIZE(D2,AVERAGE($D$2:$D$184),_xlfn.STDEV.S($D$2:$D$184))</f>
+        <v>-0.91242746191628854</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:I2)</f>
+        <v>-1.5888056632281491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>612</v>
+      </c>
+      <c r="C3" s="5">
+        <v>191</v>
+      </c>
+      <c r="D3" s="5">
+        <v>421</v>
+      </c>
+      <c r="E3">
+        <v>9502</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">STANDARDIZE(B3,AVERAGE($B$2:$B$184),_xlfn.STDEV.S($B$2:$B$184))</f>
+        <v>-1.5313386335056876</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">STANDARDIZE(C3,AVERAGE($C$2:$C$184),_xlfn.STDEV.S($C$2:$C$184))</f>
+        <v>-1.3263854073440751</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">STANDARDIZE(D3,AVERAGE($D$2:$D$184),_xlfn.STDEV.S($D$2:$D$184))</f>
+        <v>-1.3000864081790082</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="3">SUM(G3:I3)</f>
+        <v>-4.1578104490287711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>501</v>
+      </c>
+      <c r="C4" s="5">
+        <v>172</v>
+      </c>
+      <c r="D4" s="5">
+        <v>329</v>
+      </c>
+      <c r="E4">
+        <v>9503.01</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-1.7248060717910743</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-1.4055043310245581</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>-1.5136470252818239</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>-4.6439574280974565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>621</v>
+      </c>
+      <c r="C5" s="5">
+        <v>169</v>
+      </c>
+      <c r="D5" s="5">
+        <v>452</v>
+      </c>
+      <c r="E5">
+        <v>9503.02</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1.5156520844555212</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-1.4179967926583186</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-1.2281257654595812</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>-4.1617746425734214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>632</v>
+      </c>
+      <c r="C6" s="5">
+        <v>186</v>
+      </c>
+      <c r="D6" s="5">
+        <v>446</v>
+      </c>
+      <c r="E6">
+        <v>9503.0300000000007</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-1.4964796356164287</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-1.3472061767336758</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-1.2420536317923736</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-4.0857394441424777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>876</v>
+      </c>
+      <c r="C7" s="5">
+        <v>165</v>
+      </c>
+      <c r="D7" s="5">
+        <v>711</v>
+      </c>
+      <c r="E7">
+        <v>9504</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-1.0711998613674709</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-1.4346534081699991</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-0.62690620209404591</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>-3.1327594716315157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1694</v>
+      </c>
+      <c r="C8" s="5">
+        <v>284</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1410</v>
+      </c>
+      <c r="E8">
+        <v>9505</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.35453315230321608</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-0.93911909669750082</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.99569022567626009</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.4111042812819754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1782</v>
+      </c>
+      <c r="C9" s="5">
+        <v>869</v>
+      </c>
+      <c r="D9" s="5">
+        <v>913</v>
+      </c>
+      <c r="E9">
+        <v>9601</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.50791274301595501</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.496910921885789</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-0.15800136889003757</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1.8468222960117062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="5">
+        <v>962</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1052</v>
+      </c>
+      <c r="E10">
+        <v>9602</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.91227711853135773</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.8841772325323634</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.16466086781965131</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>2.9611152188833723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1364</v>
+      </c>
+      <c r="C11" s="5">
+        <v>413</v>
+      </c>
+      <c r="D11" s="5">
+        <v>951</v>
+      </c>
+      <c r="E11">
+        <v>9603</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.22064031286955491</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-0.40194324644580104</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>-6.9791548782352844E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>-0.69237510809770875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>994</v>
+      </c>
+      <c r="C12" s="5">
+        <v>456</v>
+      </c>
+      <c r="D12" s="5">
+        <v>538</v>
+      </c>
+      <c r="E12">
+        <v>9604</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-0.86553177382084356</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-0.22288462969523443</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>-1.0284930146895579</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>-2.1169094182056361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1526</v>
+      </c>
+      <c r="C13" s="5">
+        <v>612</v>
+      </c>
+      <c r="D13" s="5">
+        <v>914</v>
+      </c>
+      <c r="E13">
+        <v>9605</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6.171757003344177E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.42672337526030957</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>-0.1556800578345722</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.33276088745917909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1606</v>
+      </c>
+      <c r="C14" s="5">
+        <v>802</v>
+      </c>
+      <c r="D14" s="5">
+        <v>804</v>
+      </c>
+      <c r="E14">
+        <v>9606</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.20115356159047718</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.2179126120651387</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-0.41102427393576485</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1.008041899719851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>650</v>
+      </c>
+      <c r="C15" s="5">
+        <v>309</v>
+      </c>
+      <c r="D15" s="5">
+        <v>341</v>
+      </c>
+      <c r="E15">
+        <v>9400</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-1.4651065375160959</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-0.83501524974949703</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-1.4857912926162393</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>-3.7859130798818326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1264</v>
+      </c>
+      <c r="C16" s="5">
+        <v>686</v>
+      </c>
+      <c r="D16" s="5">
+        <v>578</v>
+      </c>
+      <c r="E16">
+        <v>9701</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-0.39493530231584917</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.73487076222640091</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-0.93564057247094246</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>-0.59570511256039071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1261</v>
+      </c>
+      <c r="C17" s="5">
+        <v>712</v>
+      </c>
+      <c r="D17" s="5">
+        <v>549</v>
+      </c>
+      <c r="E17">
+        <v>9702</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-0.40016415199923799</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.84313876305232494</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-1.0029585930794387</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>-0.55998398202635169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>986</v>
+      </c>
+      <c r="C18" s="5">
+        <v>417</v>
+      </c>
+      <c r="D18" s="5">
+        <v>569</v>
+      </c>
+      <c r="E18">
+        <v>9703</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-0.8794753729765471</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-0.38528663093412041</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-0.95653237197013097</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>-2.2212943758807984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>769</v>
+      </c>
+      <c r="C19" s="5">
+        <v>271</v>
+      </c>
+      <c r="D19" s="5">
+        <v>498</v>
+      </c>
+      <c r="E19">
+        <v>9601</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-1.2576955000750056</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-0.99325309711046283</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-1.1213454569081736</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>-3.3722940540936417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1336</v>
+      </c>
+      <c r="C20" s="5">
+        <v>555</v>
+      </c>
+      <c r="D20" s="5">
+        <v>781</v>
+      </c>
+      <c r="E20">
+        <v>9602</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-0.2694429099145173</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.18936660421886078</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>-0.46441442821146878</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>-0.54449073390712532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1134</v>
+      </c>
+      <c r="C21" s="5">
+        <v>532</v>
+      </c>
+      <c r="D21" s="5">
+        <v>602</v>
+      </c>
+      <c r="E21">
+        <v>9603</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-0.62151878859603171</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>9.3591065026697257E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>-0.87992910713977313</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>-1.4078568307091075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1389</v>
+      </c>
+      <c r="C22" s="5">
+        <v>616</v>
+      </c>
+      <c r="D22" s="5">
+        <v>773</v>
+      </c>
+      <c r="E22">
+        <v>9604</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-0.17706656550798133</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.44337999077199014</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>-0.48298491665519183</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>-0.21667149139118302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>932</v>
+      </c>
+      <c r="C23" s="5">
+        <v>499</v>
+      </c>
+      <c r="D23" s="5">
+        <v>433</v>
+      </c>
+      <c r="E23">
+        <v>9701</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-0.97359466727754607</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>-4.3826012944667821E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>-1.2722306755134236</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>-2.2896513557356375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1193</v>
+      </c>
+      <c r="C24" s="5">
+        <v>554</v>
+      </c>
+      <c r="D24" s="5">
+        <v>639</v>
+      </c>
+      <c r="E24">
+        <v>9702</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>-0.51868474482271809</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.18520245034094063</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>-0.79404059808755378</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>-1.1275228925693312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1373</v>
+      </c>
+      <c r="C25" s="5">
+        <v>610</v>
+      </c>
+      <c r="D25" s="5">
+        <v>763</v>
+      </c>
+      <c r="E25">
+        <v>9703</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>-0.20495376381938843</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.41839506750446925</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-0.50619802720984575</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>-0.29275672352476489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1195</v>
+      </c>
+      <c r="C26" s="5">
+        <v>572</v>
+      </c>
+      <c r="D26" s="5">
+        <v>623</v>
+      </c>
+      <c r="E26">
+        <v>9704</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-0.51519884503379221</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0.2601572201435034</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>-0.831181574975</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>-1.0862231998652887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1105</v>
+      </c>
+      <c r="C27" s="5">
+        <v>583</v>
+      </c>
+      <c r="D27" s="5">
+        <v>522</v>
+      </c>
+      <c r="E27">
+        <v>9705</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-0.67206433553545697</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.3059629128006251</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>-1.0656339915770041</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>-1.4317354143118359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1295</v>
+      </c>
+      <c r="C28" s="5">
+        <v>520</v>
+      </c>
+      <c r="D28" s="5">
+        <v>775</v>
+      </c>
+      <c r="E28">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-0.34090385558749792</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>4.3621218491655407E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-0.47834229454426108</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>-0.7756249316401036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>616</v>
+      </c>
+      <c r="C29" s="5">
+        <v>167</v>
+      </c>
+      <c r="D29" s="5">
+        <v>449</v>
+      </c>
+      <c r="E29">
+        <v>2.02</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>-1.5243668339278358</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>-1.4263251004141588</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>-1.2350896986259774</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>-4.1857816329679718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1095</v>
+      </c>
+      <c r="C30" s="5">
+        <v>328</v>
+      </c>
+      <c r="D30" s="5">
+        <v>767</v>
+      </c>
+      <c r="E30">
+        <v>3.01</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>-0.68949383448008639</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>-0.75589632606901414</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>-0.49691278298798419</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>-1.9423029435370847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1035</v>
+      </c>
+      <c r="C31" s="5">
+        <v>305</v>
+      </c>
+      <c r="D31" s="5">
+        <v>730</v>
+      </c>
+      <c r="E31">
+        <v>3.02</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-0.79407082814786301</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>-0.85167186526117766</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>-0.58280129204020348</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>-2.2285439854492441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1638</v>
+      </c>
+      <c r="C32" s="5">
+        <v>371</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1267</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.25692795821329134</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>-0.57683770931844747</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.66374274474470962</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.3438329936395535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1447</v>
+      </c>
+      <c r="C33" s="5">
+        <v>360</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1087</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>-7.5975471629130681E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>-0.62264340197556922</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.24590675476093987</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>-0.45271211884376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1286</v>
+      </c>
+      <c r="C34" s="5">
+        <v>301</v>
+      </c>
+      <c r="D34" s="5">
+        <v>985</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>-0.35659040463766439</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>-0.86832848077285829</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>9.1330271034703297E-3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>-1.2157858583070522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2231</v>
+      </c>
+      <c r="C35" s="5">
+        <v>622</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1609</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1.2904972456298163</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.46836491403951108</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>1.4576311257138723</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>3.2164932853831996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1955</v>
+      </c>
+      <c r="C36" s="5">
+        <v>875</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1080</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.80944307475804411</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1.52189584515331</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.22965757737268216</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>2.560996497284036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2368</v>
+      </c>
+      <c r="C37" s="5">
+        <v>673</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1695</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.5292813811712394</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0.6807367618134389</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.6572638764838956</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>3.8672820194685738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2309</v>
+      </c>
+      <c r="C38" s="5">
+        <v>675</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1634</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1.4264473373979256</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.68906506956927926</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.5156639021005069</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>3.6311763090677118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1411</v>
+      </c>
+      <c r="C39" s="5">
+        <v>455</v>
+      </c>
+      <c r="D39" s="5">
+        <v>956</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>-0.13872166782979661</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>-0.22704878357315458</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>-5.8184993505025914E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>-0.4239554449079771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5">
+        <v>989</v>
+      </c>
+      <c r="C40" s="5">
+        <v>294</v>
+      </c>
+      <c r="D40" s="5">
+        <v>695</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>-0.87424652329315833</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>-0.89747755791829931</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>-0.66404717898149213</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>-2.4357712601929498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1521</v>
+      </c>
+      <c r="C41" s="5">
+        <v>396</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1125</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>5.3002820561127061E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>-0.47273386237044362</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0.33411657486862462</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>-8.5614466940691969E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2415</v>
+      </c>
+      <c r="C42" s="5">
+        <v>554</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1861</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>1.6112000262109976</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0.18520245034094063</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>2.0426015116911498</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>3.8390039882430882</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2395</v>
+      </c>
+      <c r="C43" s="5">
+        <v>836</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1559</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1.5763410283217387</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>1.359493843914424</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>1.3415655729406029</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>4.2774004451767658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1354</v>
+      </c>
+      <c r="C44" s="5">
+        <v>403</v>
+      </c>
+      <c r="D44" s="5">
+        <v>951</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>-0.23806981181418432</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>-0.44358478522500255</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>-6.9791548782352844E-2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>-0.75144614582153968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1375</v>
+      </c>
+      <c r="C45" s="5">
+        <v>621</v>
+      </c>
+      <c r="D45" s="5">
+        <v>754</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>-0.20146786403046255</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>0.4642007601615909</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>-0.52708982670903426</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>-0.26435693057790588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1477</v>
+      </c>
+      <c r="C46" s="5">
+        <v>384</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1093</v>
+      </c>
+      <c r="E46">
+        <v>19</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>-2.3686974795242406E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>-0.52270370890548545</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0.25983462109373218</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>-0.28655606260699568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1707</v>
+      </c>
+      <c r="C47" s="5">
+        <v>534</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1173</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0.37719150093123438</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>0.10191937278253756</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0.44553950553096322</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0.92465037924473514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1125</v>
+      </c>
+      <c r="C48" s="5">
+        <v>257</v>
+      </c>
+      <c r="D48" s="5">
+        <v>868</v>
+      </c>
+      <c r="E48">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>-0.63720533764619813</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>-1.051551251401345</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>-0.26246036638598003</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>-1.951216955433523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2182</v>
+      </c>
+      <c r="C49" s="5">
+        <v>831</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1351</v>
+      </c>
+      <c r="E49">
+        <v>23</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1.2050927008011321</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>1.3386730745248232</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>0.85873287340380222</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>3.4024986487297575</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1152</v>
+      </c>
+      <c r="C50" s="5">
+        <v>360</v>
+      </c>
+      <c r="D50" s="5">
+        <v>792</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>-0.59014569049569865</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>-0.62264340197556922</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>-0.43888000660134946</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>-1.6516690990726173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1111</v>
+      </c>
+      <c r="C51" s="5">
+        <v>263</v>
+      </c>
+      <c r="D51" s="5">
+        <v>848</v>
+      </c>
+      <c r="E51">
+        <v>25.01</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>-0.66160663616867932</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>-1.026566328133824</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>-0.3088865874952878</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>-1.9970595517977912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6">
+        <v>1014</v>
+      </c>
+      <c r="C52" s="5">
+        <v>309</v>
+      </c>
+      <c r="D52" s="5">
+        <v>705</v>
+      </c>
+      <c r="E52">
+        <v>25.02</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>-0.83067277593158473</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>-0.83501524974949703</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>-0.64083406842683821</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>-2.3065220941079199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="5">
+        <v>197</v>
+      </c>
+      <c r="C53" s="5">
+        <v>11</v>
+      </c>
+      <c r="D53" s="5">
+        <v>186</v>
+      </c>
+      <c r="E53">
+        <v>25.03</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>-2.2546628397078088</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>-2.0759331053697028</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>-1.8455945062133745</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>-6.1761904512908865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2083</v>
+      </c>
+      <c r="C54" s="5">
+        <v>512</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1571</v>
+      </c>
+      <c r="E54">
+        <v>26</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>1.0325406612493007</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>1.0307987468294177E-2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>1.3694213056061875</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>2.412269954323782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6">
+        <v>1227</v>
+      </c>
+      <c r="C55" s="5">
+        <v>353</v>
+      </c>
+      <c r="D55" s="5">
+        <v>874</v>
+      </c>
+      <c r="E55">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>-0.45942444841097801</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>-0.65179247912101024</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>-0.24853250005318769</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>-1.359749427585176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5">
+        <v>966</v>
+      </c>
+      <c r="C56" s="5">
+        <v>236</v>
+      </c>
+      <c r="D56" s="5">
+        <v>730</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>-0.91433437086580605</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>-1.1389984828376682</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>-0.58280129204020348</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>-2.6361341457436778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6">
+        <v>2184</v>
+      </c>
+      <c r="C57" s="5">
+        <v>632</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1552</v>
+      </c>
+      <c r="E57">
+        <v>31</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1.2085786005900578</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>0.5100064528187126</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>1.325316395552345</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>3.0439014489611154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1574</v>
+      </c>
+      <c r="C58" s="5">
+        <v>539</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1035</v>
+      </c>
+      <c r="E58">
+        <v>32</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0.14537916496766301</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>0.12274014217213833</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>0.12519857987673971</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>0.39331788701654108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1838</v>
+      </c>
+      <c r="C59" s="5">
+        <v>579</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1259</v>
+      </c>
+      <c r="E59">
+        <v>35</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0.60551793710587987</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0.28930629728894447</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>0.64517225630098651</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1.5399964906958108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1218</v>
+      </c>
+      <c r="C60" s="5">
+        <v>190</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1028</v>
+      </c>
+      <c r="E60">
+        <v>36.01</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>-0.47511099746114449</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>-1.3305495612219953</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.10894940248848201</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>-1.6967111561946577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1699</v>
+      </c>
+      <c r="C61" s="5">
+        <v>496</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1203</v>
+      </c>
+      <c r="E61">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0.36324790177553079</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>-5.6318474578428278E-2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>0.51517883719492485</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0.82210826439202744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="5">
+        <v>894</v>
+      </c>
+      <c r="C62" s="5">
+        <v>276</v>
+      </c>
+      <c r="D62" s="5">
+        <v>618</v>
+      </c>
+      <c r="E62">
+        <v>38</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>-1.0398267632671379</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>-0.97243232772086208</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>-0.84278813025232691</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>-2.8550472212403268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6">
+        <v>1023</v>
+      </c>
+      <c r="C63" s="5">
+        <v>589</v>
+      </c>
+      <c r="D63" s="5">
+        <v>434</v>
+      </c>
+      <c r="E63">
+        <v>39</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>-0.81498622688141831</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0.33094783606814598</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>-1.2699093644579582</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>-1.7539477552712306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1326</v>
+      </c>
+      <c r="C64" s="5">
+        <v>291</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1035</v>
+      </c>
+      <c r="E64">
+        <v>40.01</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>-0.28687240885914672</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>-0.90997001955205981</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>0.12519857987673971</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>-1.0716438485344668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1276</v>
+      </c>
+      <c r="C65" s="5">
+        <v>188</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1088</v>
+      </c>
+      <c r="E65">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>-0.37401990358229381</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>-1.3388778689778356</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>0.24822806581640525</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>-1.464669706743724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6">
+        <v>1072</v>
+      </c>
+      <c r="C66" s="5">
+        <v>478</v>
+      </c>
+      <c r="D66" s="5">
+        <v>594</v>
+      </c>
+      <c r="E66">
+        <v>41</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>-0.7295816820527341</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>-0.13127324438099106</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>-0.89849959558349624</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>-1.7593545220172215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1936</v>
+      </c>
+      <c r="C67" s="5">
+        <v>512</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1424</v>
+      </c>
+      <c r="E67">
+        <v>42</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="4">STANDARDIZE(B67,AVERAGE($B$2:$B$184),_xlfn.STDEV.S($B$2:$B$184))</f>
+        <v>0.77632702676324816</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="5">STANDARDIZE(C67,AVERAGE($C$2:$C$184),_xlfn.STDEV.S($C$2:$C$184))</f>
+        <v>1.0307987468294177E-2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="6">STANDARDIZE(D67,AVERAGE($D$2:$D$184),_xlfn.STDEV.S($D$2:$D$184))</f>
+        <v>1.0281885804527755</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="7">SUM(G67:I67)</f>
+        <v>1.8148235946843179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1516</v>
+      </c>
+      <c r="C68" s="5">
+        <v>684</v>
+      </c>
+      <c r="D68" s="5">
+        <v>832</v>
+      </c>
+      <c r="E68">
+        <v>43</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>4.4288071088812352E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="5"/>
+        <v>0.72654245447056065</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="6"/>
+        <v>-0.34602756438273397</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="7"/>
+        <v>0.42480296117663907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2129</v>
+      </c>
+      <c r="C69" s="5">
+        <v>776</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1353</v>
+      </c>
+      <c r="E69">
+        <v>44</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>1.1127163563945961</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>1.1096446112392147</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>0.86337549551473303</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>3.0857364631485433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6">
+        <v>1502</v>
+      </c>
+      <c r="C70" s="5">
+        <v>498</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1004</v>
+      </c>
+      <c r="E70">
+        <v>45</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>1.9886772566331153E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>-4.7990166822587971E-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>5.3237937157312697E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>2.5134542901055879E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="6">
+        <v>2124</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1085</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1039</v>
+      </c>
+      <c r="E71">
+        <v>46.01</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>1.1040016069222813</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>2.3963681595165425</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>0.13448382409860127</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>3.6348535905374249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="6">
+        <v>1230</v>
+      </c>
+      <c r="C72" s="5">
+        <v>310</v>
+      </c>
+      <c r="D72" s="5">
+        <v>920</v>
+      </c>
+      <c r="E72">
+        <v>46.02</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>-0.45419559872758919</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>-0.83085109587157691</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>-0.14175219150177987</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>-1.426798886100946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="6">
+        <v>1136</v>
+      </c>
+      <c r="C73" s="5">
+        <v>285</v>
+      </c>
+      <c r="D73" s="5">
+        <v>851</v>
+      </c>
+      <c r="E73">
+        <v>47.01</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>-0.61803288880710583</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>-0.93495494281958069</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>-0.30192265432889159</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>-1.8549104859555781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="6">
+        <v>1697</v>
+      </c>
+      <c r="C74" s="5">
+        <v>629</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1068</v>
+      </c>
+      <c r="E74">
+        <v>47.02</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>0.35976200198660491</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>0.49751399118495215</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>0.2018018447070975</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>1.0590778378786545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2057</v>
+      </c>
+      <c r="C75" s="5">
+        <v>953</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1104</v>
+      </c>
+      <c r="E75">
+        <v>48</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>0.98722396399326418</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>1.8466998476310819</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>0.28536904270385144</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>3.1192928543281973</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2315</v>
+      </c>
+      <c r="C76" s="5">
+        <v>955</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1360</v>
+      </c>
+      <c r="E76">
+        <v>49</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>1.4369050367647034</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>1.8550281553869223</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>0.87962467290299073</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>4.1715578650546163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C77" s="5">
+        <v>675</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1325</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>0.88787582000887644</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>0.68906506956927926</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>0.79837878596170209</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>2.3753196755398576</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1481</v>
+      </c>
+      <c r="C78" s="5">
+        <v>577</v>
+      </c>
+      <c r="D78" s="5">
+        <v>904</v>
+      </c>
+      <c r="E78">
+        <v>101.01</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>-1.6715175217390636E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>0.28097798953310416</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="6"/>
+        <v>-0.17889316838922606</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>8.5369645926487464E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="6">
+        <v>1045</v>
+      </c>
+      <c r="C79" s="5">
+        <v>325</v>
+      </c>
+      <c r="D79" s="5">
+        <v>720</v>
+      </c>
+      <c r="E79">
+        <v>101.02</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>-0.77664132920323359</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>-0.76838878770277452</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="6"/>
+        <v>-0.60601440259485739</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>-2.1510445195008656</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="6">
+        <v>1858</v>
+      </c>
+      <c r="C80" s="5">
+        <v>558</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1300</v>
+      </c>
+      <c r="E80">
+        <v>102.01</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>0.6403769349951387</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>0.20185906585262126</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="6"/>
+        <v>0.74034600957506747</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>1.5825820104228274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="6">
+        <v>1449</v>
+      </c>
+      <c r="C81" s="5">
+        <v>397</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1052</v>
+      </c>
+      <c r="E81">
+        <v>102.03</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>-7.2489571840204797E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>-0.4685697084925235</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>0.16466086781965131</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="7"/>
+        <v>-0.37639841251307704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="5">
+        <v>974</v>
+      </c>
+      <c r="C82" s="5">
+        <v>417</v>
+      </c>
+      <c r="D82" s="5">
+        <v>557</v>
+      </c>
+      <c r="E82">
+        <v>102.04</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>-0.9003907717101024</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>-0.38528663093412041</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="6"/>
+        <v>-0.98438810463571558</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="7"/>
+        <v>-2.2700655072799383</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="6">
+        <v>1987</v>
+      </c>
+      <c r="C83" s="5">
+        <v>701</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1286</v>
+      </c>
+      <c r="E83">
+        <v>103.01</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>0.86521747138085825</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0.79733307039520318</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="6"/>
+        <v>0.70784765479855205</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>2.3703981965746133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="6">
+        <v>1236</v>
+      </c>
+      <c r="C84" s="5">
+        <v>495</v>
+      </c>
+      <c r="D84" s="5">
+        <v>741</v>
+      </c>
+      <c r="E84">
+        <v>103.03</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>-0.44373789936081154</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>-6.0482628456348435E-2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="6"/>
+        <v>-0.55726687043008427</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>-1.0614873982472441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="6">
+        <v>2257</v>
+      </c>
+      <c r="C85" s="5">
+        <v>868</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1389</v>
+      </c>
+      <c r="E85">
+        <v>103.04</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>1.3358139428858526</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>1.4927467680078688</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="6"/>
+        <v>0.94694269351148697</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>3.775503404405208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2644</v>
+      </c>
+      <c r="C86" s="5">
+        <v>755</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1889</v>
+      </c>
+      <c r="E86">
+        <v>103.05</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>2.0103355520430113</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>1.0221973798028916</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>2.1075982212441806</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>5.1401311530900831</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="6">
+        <v>1752</v>
+      </c>
+      <c r="C87" s="5">
+        <v>411</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1341</v>
+      </c>
+      <c r="E87">
+        <v>104.01</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>0.45562424618206676</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>-0.41027155420164135</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="6"/>
+        <v>0.83551976284914831</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>0.88087245482957366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="6">
+        <v>1222</v>
+      </c>
+      <c r="C88" s="5">
+        <v>496</v>
+      </c>
+      <c r="D88" s="5">
+        <v>726</v>
+      </c>
+      <c r="E88">
+        <v>104.03</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>-0.46813919788329272</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>-5.6318474578428278E-2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>-0.59208653626206509</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>-1.116544208723786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="6">
+        <v>1259</v>
+      </c>
+      <c r="C89" s="5">
+        <v>568</v>
+      </c>
+      <c r="D89" s="5">
+        <v>691</v>
+      </c>
+      <c r="E89">
+        <v>104.04</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>-0.40365005178816388</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>0.24350060463182277</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="6"/>
+        <v>-0.67333242320335362</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>-0.83348187035969468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6">
+        <v>1328</v>
+      </c>
+      <c r="C90" s="5">
+        <v>576</v>
+      </c>
+      <c r="D90" s="5">
+        <v>752</v>
+      </c>
+      <c r="E90">
+        <v>105.04</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>-0.28338650907022084</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>0.27681383565518403</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="6"/>
+        <v>-0.53173244881996495</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>-0.53830512223500171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1241</v>
+      </c>
+      <c r="C91" s="5">
+        <v>379</v>
+      </c>
+      <c r="D91" s="5">
+        <v>862</v>
+      </c>
+      <c r="E91">
+        <v>105.05</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>-0.43502314988849683</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>-0.54352447829508621</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="6"/>
+        <v>-0.27638823271877233</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>-1.2549358609023553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="6">
+        <v>2401</v>
+      </c>
+      <c r="C92" s="6">
+        <v>1062</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1339</v>
+      </c>
+      <c r="E92">
+        <v>105.06</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>1.5867987276885165</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>2.3005926203243789</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="6"/>
+        <v>0.83087714073821761</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>4.7182684887511126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="6">
+        <v>1658</v>
+      </c>
+      <c r="C93" s="5">
+        <v>794</v>
+      </c>
+      <c r="D93" s="5">
+        <v>864</v>
+      </c>
+      <c r="E93">
+        <v>105.07</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>0.29178695610255018</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>1.1845993810417774</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="6"/>
+        <v>-0.27174561060784158</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>1.204640726536486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="6">
+        <v>1322</v>
+      </c>
+      <c r="C94" s="5">
+        <v>356</v>
+      </c>
+      <c r="D94" s="5">
+        <v>966</v>
+      </c>
+      <c r="E94">
+        <v>105.08</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>-0.29384420843699849</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>-0.63930001748724974</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="6"/>
+        <v>-3.4971882950372034E-2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>-0.96811610887462018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="6">
+        <v>1372</v>
+      </c>
+      <c r="C95" s="5">
+        <v>586</v>
+      </c>
+      <c r="D95" s="5">
+        <v>786</v>
+      </c>
+      <c r="E95">
+        <v>106.01</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>-0.20669671371385137</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>0.31845537443438554</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="6"/>
+        <v>-0.45280787293414182</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>-0.34104921221360762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="6">
+        <v>1910</v>
+      </c>
+      <c r="C96" s="5">
+        <v>837</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1073</v>
+      </c>
+      <c r="E96">
+        <v>106.03</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>0.73101032950721168</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>1.3636579977923442</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="6"/>
+        <v>0.21340839998442443</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>2.3080767272839804</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="6">
+        <v>1342</v>
+      </c>
+      <c r="C97" s="5">
+        <v>477</v>
+      </c>
+      <c r="D97" s="5">
+        <v>865</v>
+      </c>
+      <c r="E97">
+        <v>106.04</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>-0.25898521054773965</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>-0.13543739825891121</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="6"/>
+        <v>-0.26942429955237618</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>-0.66384690835902704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1462</v>
+      </c>
+      <c r="C98" s="5">
+        <v>442</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1020</v>
+      </c>
+      <c r="E98">
+        <v>107.01</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>-4.983122321218654E-2</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>-0.28118278398611657</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="6"/>
+        <v>9.0378914044758896E-2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>-0.2406350931535442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="6">
+        <v>1162</v>
+      </c>
+      <c r="C99" s="5">
+        <v>263</v>
+      </c>
+      <c r="D99" s="5">
+        <v>899</v>
+      </c>
+      <c r="E99">
+        <v>107.02</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>-0.57271619155106923</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>-1.026566328133824</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="6"/>
+        <v>-0.19049972366655302</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>-1.7897822433514463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="5">
+        <v>971</v>
+      </c>
+      <c r="C100" s="5">
+        <v>309</v>
+      </c>
+      <c r="D100" s="5">
+        <v>662</v>
+      </c>
+      <c r="E100">
+        <v>108</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>-0.90561962139349128</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>-0.83501524974949703</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="6"/>
+        <v>-0.74065044381184986</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>-2.4812853149548384</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="5">
+        <v>813</v>
+      </c>
+      <c r="C101" s="5">
+        <v>395</v>
+      </c>
+      <c r="D101" s="5">
+        <v>418</v>
+      </c>
+      <c r="E101">
+        <v>109.01</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="4"/>
+        <v>-1.1810057047186362</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>-0.47689801624836381</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="6"/>
+        <v>-1.3070503413454044</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>-2.9649540623124047</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="5">
+        <v>685</v>
+      </c>
+      <c r="C102" s="5">
+        <v>251</v>
+      </c>
+      <c r="D102" s="5">
+        <v>434</v>
+      </c>
+      <c r="E102">
+        <v>109.02</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="4"/>
+        <v>-1.4041032912098927</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>-1.076536174668866</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="6"/>
+        <v>-1.2699093644579582</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>-3.7505488303367169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1476</v>
+      </c>
+      <c r="C103" s="5">
+        <v>437</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1039</v>
+      </c>
+      <c r="E103">
+        <v>110</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="4"/>
+        <v>-2.5429924689705348E-2</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>-0.30200355337571733</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="6"/>
+        <v>0.13448382409860127</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="7"/>
+        <v>-0.1929496539668214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="6">
+        <v>1729</v>
+      </c>
+      <c r="C104" s="5">
+        <v>440</v>
+      </c>
+      <c r="D104" s="6">
+        <v>1289</v>
+      </c>
+      <c r="E104">
+        <v>111.02</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="4"/>
+        <v>0.4155363986094191</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>-0.28951109174195688</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="6"/>
+        <v>0.71481158796494815</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="7"/>
+        <v>0.84083689483241031</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1685</v>
+      </c>
+      <c r="C105" s="5">
+        <v>862</v>
+      </c>
+      <c r="D105" s="5">
+        <v>823</v>
+      </c>
+      <c r="E105">
+        <v>111.03</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="4"/>
+        <v>0.33884660325304961</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>1.467761844740348</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="6"/>
+        <v>-0.36691936388192248</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="7"/>
+        <v>1.4396890841114751</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6">
+        <v>1294</v>
+      </c>
+      <c r="C106" s="5">
+        <v>360</v>
+      </c>
+      <c r="D106" s="5">
+        <v>934</v>
+      </c>
+      <c r="E106">
+        <v>111.04</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="4"/>
+        <v>-0.34264680548196086</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>-0.62264340197556922</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="6"/>
+        <v>-0.10925383672526444</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>-1.0745440441827945</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="6">
+        <v>1602</v>
+      </c>
+      <c r="C107" s="5">
+        <v>577</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1025</v>
+      </c>
+      <c r="E107">
+        <v>112.02</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="4"/>
+        <v>0.19418176201262541</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>0.28097798953310416</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="6"/>
+        <v>0.10198546932208584</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>0.57714522086781539</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="6">
+        <v>2658</v>
+      </c>
+      <c r="C108" s="5">
+        <v>901</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1757</v>
+      </c>
+      <c r="E108">
+        <v>112.03</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="4"/>
+        <v>2.0347368505654928</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>1.630163845979234</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="6"/>
+        <v>1.8011851619227497</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>5.4660858584674763</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="5">
+        <v>981</v>
+      </c>
+      <c r="C109" s="5">
+        <v>510</v>
+      </c>
+      <c r="D109" s="5">
+        <v>471</v>
+      </c>
+      <c r="E109">
+        <v>112.04</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="4"/>
+        <v>-0.88819012244886186</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>1.9796797124538709E-3</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="6"/>
+        <v>-1.184020855405739</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>-2.0702312981421471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="6">
+        <v>1592</v>
+      </c>
+      <c r="C110" s="5">
+        <v>665</v>
+      </c>
+      <c r="D110" s="5">
+        <v>927</v>
+      </c>
+      <c r="E110">
+        <v>113.01</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="4"/>
+        <v>0.17675226306799596</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>0.64742353079007764</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="6"/>
+        <v>-0.12550301411352216</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="7"/>
+        <v>0.69867277974455144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C111" s="5">
+        <v>553</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1462</v>
+      </c>
+      <c r="E111">
+        <v>113.02</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="4"/>
+        <v>0.91402006842582062</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>0.18103829646302047</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="6"/>
+        <v>1.1163984005604601</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="7"/>
+        <v>2.2114567654493014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="6">
+        <v>2115</v>
+      </c>
+      <c r="C112" s="5">
+        <v>826</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1289</v>
+      </c>
+      <c r="E112">
+        <v>114</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="4"/>
+        <v>1.0883150578721148</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>1.3178523051352224</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="6"/>
+        <v>0.71481158796494815</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="7"/>
+        <v>3.1209789509722849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="5">
+        <v>629</v>
+      </c>
+      <c r="C113" s="5">
+        <v>177</v>
+      </c>
+      <c r="D113" s="5">
+        <v>452</v>
+      </c>
+      <c r="E113">
+        <v>115</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="4"/>
+        <v>-1.5017084852998175</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>-1.3846835616349573</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="6"/>
+        <v>-1.2281257654595812</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="7"/>
+        <v>-4.1145178123943564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="5">
+        <v>764</v>
+      </c>
+      <c r="C114" s="5">
+        <v>218</v>
+      </c>
+      <c r="D114" s="5">
+        <v>546</v>
+      </c>
+      <c r="E114">
+        <v>116</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="4"/>
+        <v>-1.2664102495473204</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>-1.213953252640231</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="6"/>
+        <v>-1.0099225262458349</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>-3.4902860284333865</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="6">
+        <v>1120</v>
+      </c>
+      <c r="C115" s="5">
+        <v>446</v>
+      </c>
+      <c r="D115" s="5">
+        <v>674</v>
+      </c>
+      <c r="E115">
+        <v>117.01</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="4"/>
+        <v>-0.6459200871185129</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>-0.26452616847443594</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="6"/>
+        <v>-0.71279471114626525</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="7"/>
+        <v>-1.623240966739214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="6">
+        <v>3229</v>
+      </c>
+      <c r="C116" s="5">
+        <v>787</v>
+      </c>
+      <c r="D116" s="6">
+        <v>2442</v>
+      </c>
+      <c r="E116">
+        <v>117.02</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="4"/>
+        <v>3.029961240303833</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>1.1554503038963364</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="6"/>
+        <v>3.39128323491654</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>7.5766947791167096</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="6">
+        <v>2847</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1062</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1785</v>
+      </c>
+      <c r="E117">
+        <v>118</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="4"/>
+        <v>2.3641543806189889</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>2.3005926203243789</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="6"/>
+        <v>1.8661818714757805</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="7"/>
+        <v>6.5309288724191488</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="6">
+        <v>2062</v>
+      </c>
+      <c r="C118" s="5">
+        <v>720</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1342</v>
+      </c>
+      <c r="E118">
+        <v>119</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>0.99593871346557894</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>0.87645199407568608</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="6"/>
+        <v>0.83784107390461371</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>2.7102317814458785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="6">
+        <v>1842</v>
+      </c>
+      <c r="C119" s="5">
+        <v>554</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1288</v>
+      </c>
+      <c r="E119">
+        <v>120</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>0.61248973668373163</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>0.18520245034094063</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="6"/>
+        <v>0.71249027690948274</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="7"/>
+        <v>1.510182463934155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="6">
+        <v>1119</v>
+      </c>
+      <c r="C120" s="5">
+        <v>339</v>
+      </c>
+      <c r="D120" s="5">
+        <v>780</v>
+      </c>
+      <c r="E120">
+        <v>121</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>-0.64766303701297578</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>-0.71009063341189238</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="6"/>
+        <v>-0.46673573926693412</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="7"/>
+        <v>-1.8244894096918025</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="5">
+        <v>962</v>
+      </c>
+      <c r="C121" s="5">
+        <v>264</v>
+      </c>
+      <c r="D121" s="5">
+        <v>698</v>
+      </c>
+      <c r="E121">
+        <v>122</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>-0.92130617044365781</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>-1.022402174255904</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="6"/>
+        <v>-0.65708324581509592</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="7"/>
+        <v>-2.6007915905146577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="6">
+        <v>2533</v>
+      </c>
+      <c r="C122" s="5">
+        <v>875</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1658</v>
+      </c>
+      <c r="E122">
+        <v>123</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="4"/>
+        <v>1.8168681137576248</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>1.52189584515331</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="6"/>
+        <v>1.5713753674316762</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="7"/>
+        <v>4.9101393263426107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="6">
+        <v>2168</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1028</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1140</v>
+      </c>
+      <c r="E123">
+        <v>124.01</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="4"/>
+        <v>1.1806914022786508</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>2.1590113884750939</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="6"/>
+        <v>0.36893624070060543</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="7"/>
+        <v>3.70863903145435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="6">
+        <v>2447</v>
+      </c>
+      <c r="C124" s="5">
+        <v>779</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1668</v>
+      </c>
+      <c r="E124">
+        <v>124.02</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="4"/>
+        <v>1.6669744228338117</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>1.1221370728729751</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="6"/>
+        <v>1.5945884779863302</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="7"/>
+        <v>4.3836999736931173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1345</v>
+      </c>
+      <c r="C125" s="5">
+        <v>363</v>
+      </c>
+      <c r="D125" s="5">
+        <v>982</v>
+      </c>
+      <c r="E125">
+        <v>125</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="4"/>
+        <v>-0.25375636086435083</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>-0.61015094034180872</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="6"/>
+        <v>2.1690939370741669E-3</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="7"/>
+        <v>-0.86173820726908534</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="6">
+        <v>1716</v>
+      </c>
+      <c r="C126" s="5">
+        <v>420</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1296</v>
+      </c>
+      <c r="E126">
+        <v>126</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="4"/>
+        <v>0.39287804998140086</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>-0.37279416930035997</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="6"/>
+        <v>0.73106076535320585</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="7"/>
+        <v>0.7511446460342468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="6">
+        <v>1846</v>
+      </c>
+      <c r="C127" s="5">
+        <v>685</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1161</v>
+      </c>
+      <c r="E127">
+        <v>127.01</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="4"/>
+        <v>0.6194615362615834</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>0.73070660834848078</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="6"/>
+        <v>0.41768377286537856</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="7"/>
+        <v>1.7678519174754428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="5">
+        <v>899</v>
+      </c>
+      <c r="C128" s="5">
+        <v>332</v>
+      </c>
+      <c r="D128" s="5">
+        <v>567</v>
+      </c>
+      <c r="E128">
+        <v>127.02</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>-1.0311120137948231</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>-0.73923971055733351</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="6"/>
+        <v>-0.96117499408106166</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="7"/>
+        <v>-2.7315267184332184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="6">
+        <v>1639</v>
+      </c>
+      <c r="C129" s="5">
+        <v>492</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1147</v>
+      </c>
+      <c r="E129">
+        <v>128.01</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>0.25867090810775428</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>-7.2975090090108899E-2</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="6"/>
+        <v>0.38518541808886314</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="7"/>
+        <v>0.57088123610650854</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="6">
+        <v>1461</v>
+      </c>
+      <c r="C130" s="5">
+        <v>674</v>
+      </c>
+      <c r="D130" s="5">
+        <v>787</v>
+      </c>
+      <c r="E130">
+        <v>128.02000000000001</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>-5.1574173106649489E-2</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>0.68490091569135902</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="6"/>
+        <v>-0.45048656187867642</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="7"/>
+        <v>0.18284018070603314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="6">
+        <v>1197</v>
+      </c>
+      <c r="C131" s="5">
+        <v>564</v>
+      </c>
+      <c r="D131" s="5">
+        <v>633</v>
+      </c>
+      <c r="E131">
+        <v>129.01</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G184" si="8">STANDARDIZE(B131,AVERAGE($B$2:$B$184),_xlfn.STDEV.S($B$2:$B$184))</f>
+        <v>-0.51171294524486632</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H184" si="9">STANDARDIZE(C131,AVERAGE($C$2:$C$184),_xlfn.STDEV.S($C$2:$C$184))</f>
+        <v>0.22684398912014217</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I184" si="10">STANDARDIZE(D131,AVERAGE($D$2:$D$184),_xlfn.STDEV.S($D$2:$D$184))</f>
+        <v>-0.80796846442034609</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J184" si="11">SUM(G131:I131)</f>
+        <v>-1.0928374205450702</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="6">
+        <v>2639</v>
+      </c>
+      <c r="C132" s="5">
+        <v>883</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1756</v>
+      </c>
+      <c r="E132">
+        <v>129.02000000000001</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="8"/>
+        <v>2.0016208025706965</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="9"/>
+        <v>1.5552090761766713</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="10"/>
+        <v>1.7988638508672843</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="11"/>
+        <v>5.3556937296146518</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="5">
+        <v>400</v>
+      </c>
+      <c r="C133" s="5">
+        <v>117</v>
+      </c>
+      <c r="D133" s="5">
+        <v>283</v>
+      </c>
+      <c r="E133">
+        <v>130.01</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="8"/>
+        <v>-1.9008440111318314</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="9"/>
+        <v>-1.6345327943101664</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="10"/>
+        <v>-1.6204273338332318</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="11"/>
+        <v>-5.1558041392752294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6">
+        <v>1309</v>
+      </c>
+      <c r="C134" s="5">
+        <v>378</v>
+      </c>
+      <c r="D134" s="5">
+        <v>931</v>
+      </c>
+      <c r="E134">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="8"/>
+        <v>-0.31650255706501673</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="9"/>
+        <v>-0.54768863217300645</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="10"/>
+        <v>-0.11621776989166061</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="11"/>
+        <v>-0.98040895912968384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="6">
+        <v>2328</v>
+      </c>
+      <c r="C135" s="5">
+        <v>729</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1599</v>
+      </c>
+      <c r="E135">
+        <v>130.03</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="8"/>
+        <v>1.4595633853927217</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="9"/>
+        <v>0.91392937897696747</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="10"/>
+        <v>1.4344180151592183</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="11"/>
+        <v>3.8079107795289073</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="6">
+        <v>3423</v>
+      </c>
+      <c r="C136" s="6">
+        <v>1137</v>
+      </c>
+      <c r="D136" s="6">
+        <v>2286</v>
+      </c>
+      <c r="E136">
+        <v>131.01</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="8"/>
+        <v>3.3680935198296438</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="9"/>
+        <v>2.6129041611683905</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="10"/>
+        <v>3.0291587102639395</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="11"/>
+        <v>9.0101563912619742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="6">
+        <v>2065</v>
+      </c>
+      <c r="C137" s="5">
+        <v>593</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1472</v>
+      </c>
+      <c r="E137">
+        <v>131.02000000000001</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="8"/>
+        <v>1.0011675631489678</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="9"/>
+        <v>0.34760445157982661</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="10"/>
+        <v>1.1396115111151142</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="11"/>
+        <v>2.4883835258439087</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="6">
+        <v>2696</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1163</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1533</v>
+      </c>
+      <c r="E138">
+        <v>132.01</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="8"/>
+        <v>2.1009689465550845</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="9"/>
+        <v>2.7211721619943146</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="10"/>
+        <v>1.2812114854985028</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="11"/>
+        <v>6.1033525940479016</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="6">
+        <v>1061</v>
+      </c>
+      <c r="C139" s="5">
+        <v>381</v>
+      </c>
+      <c r="D139" s="5">
+        <v>680</v>
+      </c>
+      <c r="E139">
+        <v>132.03</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="8"/>
+        <v>-0.74875413089182641</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="9"/>
+        <v>-0.53519617053924595</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="10"/>
+        <v>-0.69886684481347294</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="11"/>
+        <v>-1.9828171462445454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="6">
+        <v>1602</v>
+      </c>
+      <c r="C140" s="5">
+        <v>560</v>
+      </c>
+      <c r="D140" s="6">
+        <v>1042</v>
+      </c>
+      <c r="E140">
+        <v>132.04</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="8"/>
+        <v>0.19418176201262541</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="9"/>
+        <v>0.21018737360846154</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="10"/>
+        <v>0.14144775726499742</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="11"/>
+        <v>0.54581689288608437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="6">
+        <v>1211</v>
+      </c>
+      <c r="C141" s="5">
+        <v>254</v>
+      </c>
+      <c r="D141" s="5">
+        <v>957</v>
+      </c>
+      <c r="E141">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="8"/>
+        <v>-0.48731164672238508</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="9"/>
+        <v>-1.0640437130351055</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="10"/>
+        <v>-5.5863682449560526E-2</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="11"/>
+        <v>-1.6072190422070509</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="6">
+        <v>1208</v>
+      </c>
+      <c r="C142" s="5">
+        <v>298</v>
+      </c>
+      <c r="D142" s="5">
+        <v>910</v>
+      </c>
+      <c r="E142">
+        <v>133</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="8"/>
+        <v>-0.49254049640577391</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="9"/>
+        <v>-0.88082094240661868</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="10"/>
+        <v>-0.16496530205643375</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>-1.5383267408688264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C143" s="5">
+        <v>744</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1275</v>
+      </c>
+      <c r="E143">
+        <v>134.01</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="8"/>
+        <v>0.92099186800367239</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="9"/>
+        <v>0.97639168714576985</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="10"/>
+        <v>0.68231323318843273</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="11"/>
+        <v>2.5796967883378752</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="5">
+        <v>651</v>
+      </c>
+      <c r="C144" s="5">
+        <v>271</v>
+      </c>
+      <c r="D144" s="5">
+        <v>380</v>
+      </c>
+      <c r="E144">
+        <v>135.01</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="8"/>
+        <v>-1.4633635876216329</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="9"/>
+        <v>-0.99325309711046283</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="10"/>
+        <v>-1.3952601614530893</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="11"/>
+        <v>-3.8518768461851849</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="5">
+        <v>893</v>
+      </c>
+      <c r="C145" s="5">
+        <v>284</v>
+      </c>
+      <c r="D145" s="5">
+        <v>609</v>
+      </c>
+      <c r="E145">
+        <v>135.02000000000001</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="8"/>
+        <v>-1.0415697131616009</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="9"/>
+        <v>-0.93911909669750082</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="10"/>
+        <v>-0.86367992975151542</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="11"/>
+        <v>-2.8443687396106174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="6">
+        <v>2211</v>
+      </c>
+      <c r="C146" s="5">
+        <v>620</v>
+      </c>
+      <c r="D146" s="6">
+        <v>1591</v>
+      </c>
+      <c r="E146">
+        <v>135.03</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="8"/>
+        <v>1.2556382477405574</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="9"/>
+        <v>0.46003660628367077</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="10"/>
+        <v>1.4158475267154953</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="11"/>
+        <v>3.1315223807397237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="6">
+        <v>1962</v>
+      </c>
+      <c r="C147" s="5">
+        <v>512</v>
+      </c>
+      <c r="D147" s="6">
+        <v>1450</v>
+      </c>
+      <c r="E147">
+        <v>136</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="8"/>
+        <v>0.82164372401928465</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="9"/>
+        <v>1.0307987468294177E-2</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="10"/>
+        <v>1.0885426678948755</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="11"/>
+        <v>1.9204943793824545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="6">
+        <v>1377</v>
+      </c>
+      <c r="C148" s="5">
+        <v>368</v>
+      </c>
+      <c r="D148" s="6">
+        <v>1009</v>
+      </c>
+      <c r="E148">
+        <v>137</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="8"/>
+        <v>-0.19798196424153666</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="9"/>
+        <v>-0.58933017095220797</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="10"/>
+        <v>6.4844492434639633E-2</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="11"/>
+        <v>-0.72246764275910502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="5">
+        <v>826</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0</v>
+      </c>
+      <c r="D149" s="5">
+        <v>826</v>
+      </c>
+      <c r="E149">
+        <v>138</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="8"/>
+        <v>-1.1583473560906179</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="9"/>
+        <v>-2.1217387980268243</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="10"/>
+        <v>-0.35995543071552633</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="11"/>
+        <v>-3.6400415848329684</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="6">
+        <v>2157</v>
+      </c>
+      <c r="C150" s="5">
+        <v>668</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1489</v>
+      </c>
+      <c r="E150">
+        <v>139</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="8"/>
+        <v>1.1615189534395585</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="9"/>
+        <v>0.65991599242383814</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="10"/>
+        <v>1.1790737990580258</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="11"/>
+        <v>3.0005087449214223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="6">
+        <v>1733</v>
+      </c>
+      <c r="C151" s="5">
+        <v>337</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1396</v>
+      </c>
+      <c r="E151">
+        <v>140.01</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="8"/>
+        <v>0.42250819818727087</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="9"/>
+        <v>-0.71841894116773275</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="10"/>
+        <v>0.96319187089974467</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="11"/>
+        <v>0.66728112791928273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="6">
+        <v>2594</v>
+      </c>
+      <c r="C152" s="5">
+        <v>345</v>
+      </c>
+      <c r="D152" s="6">
+        <v>2249</v>
+      </c>
+      <c r="E152">
+        <v>140.02000000000001</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="8"/>
+        <v>1.9231880573198643</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="9"/>
+        <v>-0.68510571014437149</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="10"/>
+        <v>2.9432702012117202</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="11"/>
+        <v>4.1813525483872134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="6">
+        <v>2377</v>
+      </c>
+      <c r="C153" s="5">
+        <v>960</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1417</v>
+      </c>
+      <c r="E153">
+        <v>141</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="8"/>
+        <v>1.5449679302214059</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="9"/>
+        <v>1.8758489247765231</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="10"/>
+        <v>1.0119394030645177</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>4.4327562580624464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="6">
+        <v>1504</v>
+      </c>
+      <c r="C154" s="5">
+        <v>458</v>
+      </c>
+      <c r="D154" s="6">
+        <v>1046</v>
+      </c>
+      <c r="E154">
+        <v>142</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="8"/>
+        <v>2.337267235525704E-2</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="9"/>
+        <v>-0.21455632193939411</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="10"/>
+        <v>0.15073300148685898</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>-4.0450648097278108E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="6">
+        <v>1134</v>
+      </c>
+      <c r="C155" s="5">
+        <v>346</v>
+      </c>
+      <c r="D155" s="5">
+        <v>788</v>
+      </c>
+      <c r="E155">
+        <v>143</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="8"/>
+        <v>-0.62151878859603171</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="9"/>
+        <v>-0.68094155626645136</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="10"/>
+        <v>-0.44816525082321101</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>-1.750625595685694</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="6">
+        <v>1729</v>
+      </c>
+      <c r="C156" s="5">
+        <v>511</v>
+      </c>
+      <c r="D156" s="6">
+        <v>1218</v>
+      </c>
+      <c r="E156">
+        <v>144</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="8"/>
+        <v>0.4155363986094191</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="9"/>
+        <v>6.1438335903740244E-3</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="10"/>
+        <v>0.54999850302690567</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>0.97167873522669879</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="5">
+        <v>868</v>
+      </c>
+      <c r="C157" s="5">
+        <v>319</v>
+      </c>
+      <c r="D157" s="5">
+        <v>549</v>
+      </c>
+      <c r="E157">
+        <v>145</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="8"/>
+        <v>-1.0851434605231745</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="9"/>
+        <v>-0.79337371097029552</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="10"/>
+        <v>-1.0029585930794387</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>-2.881475764572909</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="5">
+        <v>858</v>
+      </c>
+      <c r="C158" s="5">
+        <v>386</v>
+      </c>
+      <c r="D158" s="5">
+        <v>472</v>
+      </c>
+      <c r="E158">
+        <v>9410</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="8"/>
+        <v>-1.1025729594678038</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="9"/>
+        <v>-0.51437540114964519</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="10"/>
+        <v>-1.1816995443502736</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="11"/>
+        <v>-2.7986479049677229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="6">
+        <v>1876</v>
+      </c>
+      <c r="C159" s="5">
+        <v>950</v>
+      </c>
+      <c r="D159" s="5">
+        <v>926</v>
+      </c>
+      <c r="E159">
+        <v>9501.01</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="8"/>
+        <v>0.67175003309547165</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="9"/>
+        <v>1.8342073859973214</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="10"/>
+        <v>-0.12782432516898753</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="11"/>
+        <v>2.3781330939238052</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" s="6">
+        <v>1310</v>
+      </c>
+      <c r="C160" s="5">
+        <v>628</v>
+      </c>
+      <c r="D160" s="5">
+        <v>682</v>
+      </c>
+      <c r="E160">
+        <v>9501.02</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="8"/>
+        <v>-0.31475960717055379</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="9"/>
+        <v>0.49334983730703202</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="10"/>
+        <v>-0.69422422270254214</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="11"/>
+        <v>-0.5156339925660639</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="6">
+        <v>1488</v>
+      </c>
+      <c r="C161" s="5">
+        <v>540</v>
+      </c>
+      <c r="D161" s="5">
+        <v>948</v>
+      </c>
+      <c r="E161">
+        <v>9502</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="8"/>
+        <v>-4.5145259561500395E-3</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="9"/>
+        <v>0.12690429605005848</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="10"/>
+        <v>-7.675548194874901E-2</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="11"/>
+        <v>4.5634288145159435E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="6">
+        <v>1041</v>
+      </c>
+      <c r="C162" s="5">
+        <v>418</v>
+      </c>
+      <c r="D162" s="5">
+        <v>623</v>
+      </c>
+      <c r="E162">
+        <v>9503</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="8"/>
+        <v>-0.78361312878108536</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="9"/>
+        <v>-0.38112247705620028</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="10"/>
+        <v>-0.831181574975</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="11"/>
+        <v>-1.9959171808122855</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="6">
+        <v>1171</v>
+      </c>
+      <c r="C163" s="5">
+        <v>674</v>
+      </c>
+      <c r="D163" s="5">
+        <v>497</v>
+      </c>
+      <c r="E163">
+        <v>9505</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="8"/>
+        <v>-0.55702964250090281</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="9"/>
+        <v>0.68490091569135902</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="10"/>
+        <v>-1.1236667679636387</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="11"/>
+        <v>-0.99579549477318252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="6">
+        <v>1003</v>
+      </c>
+      <c r="C164" s="5">
+        <v>508</v>
+      </c>
+      <c r="D164" s="5">
+        <v>495</v>
+      </c>
+      <c r="E164">
+        <v>9506</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="8"/>
+        <v>-0.84984522477067714</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="9"/>
+        <v>-6.3486280433864362E-3</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="10"/>
+        <v>-1.1283093900745695</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="11"/>
+        <v>-1.9845032428886331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="6">
+        <v>1022</v>
+      </c>
+      <c r="C165" s="5">
+        <v>496</v>
+      </c>
+      <c r="D165" s="5">
+        <v>526</v>
+      </c>
+      <c r="E165">
+        <v>9507</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="8"/>
+        <v>-0.81672917677588119</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="9"/>
+        <v>-5.6318474578428278E-2</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="10"/>
+        <v>-1.0563487473551425</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="11"/>
+        <v>-1.929396398709452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="6">
+        <v>1379</v>
+      </c>
+      <c r="C166" s="5">
+        <v>764</v>
+      </c>
+      <c r="D166" s="5">
+        <v>615</v>
+      </c>
+      <c r="E166">
+        <v>9508</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="8"/>
+        <v>-0.19449606445261078</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="9"/>
+        <v>1.0596747647041729</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="10"/>
+        <v>-0.84975206341872311</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="11"/>
+        <v>1.5426636832838958E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="5">
+        <v>705</v>
+      </c>
+      <c r="C167" s="5">
+        <v>430</v>
+      </c>
+      <c r="D167" s="5">
+        <v>275</v>
+      </c>
+      <c r="E167">
+        <v>9509</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="8"/>
+        <v>-1.3692442933206339</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="9"/>
+        <v>-0.3311526305211584</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="10"/>
+        <v>-1.638997822276955</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="11"/>
+        <v>-3.3393947461187476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="6">
+        <v>1507</v>
+      </c>
+      <c r="C168" s="5">
+        <v>841</v>
+      </c>
+      <c r="D168" s="5">
+        <v>666</v>
+      </c>
+      <c r="E168">
+        <v>9511</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="8"/>
+        <v>2.8601522038645865E-2</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="9"/>
+        <v>1.3803146133040247</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="10"/>
+        <v>-0.73136519958998836</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="11"/>
+        <v>0.67755093575268233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="5">
+        <v>960</v>
+      </c>
+      <c r="C169" s="5">
+        <v>428</v>
+      </c>
+      <c r="D169" s="5">
+        <v>532</v>
+      </c>
+      <c r="E169">
+        <v>9513.01</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="8"/>
+        <v>-0.9247920702325837</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="9"/>
+        <v>-0.33948093827699871</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="10"/>
+        <v>-1.0424208810223503</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="11"/>
+        <v>-2.3066938895319327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" s="5">
+        <v>619</v>
+      </c>
+      <c r="C170" s="5">
+        <v>278</v>
+      </c>
+      <c r="D170" s="5">
+        <v>341</v>
+      </c>
+      <c r="E170">
+        <v>9513.02</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="8"/>
+        <v>-1.519137984244447</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="9"/>
+        <v>-0.96410401996502182</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="10"/>
+        <v>-1.4857912926162393</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="11"/>
+        <v>-3.9690332968257085</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="6">
+        <v>1404</v>
+      </c>
+      <c r="C171" s="5">
+        <v>809</v>
+      </c>
+      <c r="D171" s="5">
+        <v>595</v>
+      </c>
+      <c r="E171">
+        <v>9514.01</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="8"/>
+        <v>-0.15092231709103721</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="9"/>
+        <v>1.2470616892105797</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="10"/>
+        <v>-0.89617828452803083</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="11"/>
+        <v>0.19996108759151165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="6">
+        <v>1540</v>
+      </c>
+      <c r="C172" s="5">
+        <v>540</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E172">
+        <v>9514.02</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="8"/>
+        <v>8.6118868555922962E-2</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="9"/>
+        <v>0.12690429605005848</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="10"/>
+        <v>4.3952692935451142E-2</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="11"/>
+        <v>0.2569758575414326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="6">
+        <v>1177</v>
+      </c>
+      <c r="C173" s="5">
+        <v>91</v>
+      </c>
+      <c r="D173" s="6">
+        <v>1086</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="8"/>
+        <v>-0.54657194313412516</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="9"/>
+        <v>-1.7428007951360904</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="10"/>
+        <v>0.24358544370547447</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="11"/>
+        <v>-2.0457872945647413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="6">
+        <v>1905</v>
+      </c>
+      <c r="C174" s="5">
+        <v>268</v>
+      </c>
+      <c r="D174" s="6">
+        <v>1637</v>
+      </c>
+      <c r="E174">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="8"/>
+        <v>0.72229558003489691</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="9"/>
+        <v>-1.0057455587442232</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="10"/>
+        <v>1.5226278352669032</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="11"/>
+        <v>1.2391778565575768</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="5">
+        <v>945</v>
+      </c>
+      <c r="C175" s="5">
+        <v>103</v>
+      </c>
+      <c r="D175" s="5">
+        <v>842</v>
+      </c>
+      <c r="E175">
+        <v>2.02</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="8"/>
+        <v>-0.95093631864952777</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="9"/>
+        <v>-1.6928309486010487</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="10"/>
+        <v>-0.32281445382808011</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="11"/>
+        <v>-2.9665817210786565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="6">
+        <v>2392</v>
+      </c>
+      <c r="C176" s="5">
+        <v>561</v>
+      </c>
+      <c r="D176" s="6">
+        <v>1831</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="8"/>
+        <v>1.57111217863835</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="9"/>
+        <v>0.2143515274863817</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="10"/>
+        <v>1.9729621800271884</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="11"/>
+        <v>3.7584258861519197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="6">
+        <v>1998</v>
+      </c>
+      <c r="C177" s="5">
+        <v>713</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1285</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="8"/>
+        <v>0.88438992021995055</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="9"/>
+        <v>0.84730291693024506</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="10"/>
+        <v>0.70552634374308665</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="11"/>
+        <v>2.4372191808932824</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="5">
+        <v>447</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0</v>
+      </c>
+      <c r="D178" s="5">
+        <v>447</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="8"/>
+        <v>-1.8189253660920732</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="9"/>
+        <v>-2.1217387980268243</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="10"/>
+        <v>-1.2397323207369082</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="11"/>
+        <v>-5.1803964848558053</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A179" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="6">
+        <v>2250</v>
+      </c>
+      <c r="C179" s="5">
+        <v>109</v>
+      </c>
+      <c r="D179" s="6">
+        <v>2141</v>
+      </c>
+      <c r="E179">
+        <v>6.01</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="8"/>
+        <v>1.3236132936246121</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="9"/>
+        <v>-1.6678460253335277</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="10"/>
+        <v>2.6925686072214581</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="11"/>
+        <v>2.3483358755125425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="6">
+        <v>1997</v>
+      </c>
+      <c r="C180" s="5">
+        <v>76</v>
+      </c>
+      <c r="D180" s="6">
+        <v>1921</v>
+      </c>
+      <c r="E180">
+        <v>6.02</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="8"/>
+        <v>0.88264697032548767</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="9"/>
+        <v>-1.8052631033048927</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="10"/>
+        <v>2.1818801750190731</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="11"/>
+        <v>1.2592640420396681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A181" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181" s="6">
+        <v>1480</v>
+      </c>
+      <c r="C181" s="5">
+        <v>538</v>
+      </c>
+      <c r="D181" s="5">
+        <v>942</v>
+      </c>
+      <c r="E181">
+        <v>7</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="8"/>
+        <v>-1.8458125111853581E-2</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="9"/>
+        <v>0.11857598829421817</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="10"/>
+        <v>-9.0683348281541343E-2</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="11"/>
+        <v>9.4345149008232543E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="6">
+        <v>1424</v>
+      </c>
+      <c r="C182" s="5">
+        <v>582</v>
+      </c>
+      <c r="D182" s="5">
+        <v>842</v>
+      </c>
+      <c r="E182">
+        <v>8</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="8"/>
+        <v>-0.11606331920177836</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="9"/>
+        <v>0.30179875892270491</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="10"/>
+        <v>-0.32281445382808011</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="11"/>
+        <v>-0.13707901410715356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A183" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="6">
+        <v>1587</v>
+      </c>
+      <c r="C183" s="5">
+        <v>630</v>
+      </c>
+      <c r="D183" s="5">
+        <v>957</v>
+      </c>
+      <c r="E183">
+        <v>9</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="8"/>
+        <v>0.16803751359568125</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="9"/>
+        <v>0.50167814506287234</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="10"/>
+        <v>-5.5863682449560526E-2</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="11"/>
+        <v>0.61385197620899301</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="5">
+        <v>883</v>
+      </c>
+      <c r="C184" s="5">
+        <v>307</v>
+      </c>
+      <c r="D184" s="5">
+        <v>576</v>
+      </c>
+      <c r="E184">
+        <v>10</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="8"/>
+        <v>-1.0589992121062302</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="9"/>
+        <v>-0.84334355750533729</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="10"/>
+        <v>-0.94028319458187326</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="11"/>
+        <v>-2.8426259641934406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A185" s="3"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A186" s="3"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A187" s="3"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A188" s="3"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A189" s="3"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A190" s="3"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A191" s="3"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A192" s="3"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="3"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="3"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="3"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F196" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>